--- a/Listas_201.xlsx
+++ b/Listas_201.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmartinez/Documents/GitHub/DeepLearningReview/Metodos_Numericos/Asistencias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmartinez/Documents/GitHub/ProyectosMN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E6CDA9-52D7-5641-AD14-DB38D51C1174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB05A698-FE21-F14B-BC5C-64A725994A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="700" windowWidth="24500" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="700" windowWidth="26800" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estadística_201" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="154">
   <si>
     <t>No</t>
   </si>
@@ -471,6 +471,18 @@
   </si>
   <si>
     <t>aurora.zuniga@alumnos.uacm.edu.mx</t>
+  </si>
+  <si>
+    <t>RUIZ RAMIREZ JEHU</t>
+  </si>
+  <si>
+    <t>AMAYA AREALLANO ARELI</t>
+  </si>
+  <si>
+    <t>JIMENEZ TORCIDA JAVIER</t>
+  </si>
+  <si>
+    <t>GARCIA ROMERO FERNANDO</t>
   </si>
 </sst>
 </file>
@@ -838,19 +850,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -883,8 +896,11 @@
       <c r="E2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -901,7 +917,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -918,7 +934,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -934,8 +950,11 @@
       <c r="E5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -951,8 +970,11 @@
       <c r="E6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -968,8 +990,11 @@
       <c r="E7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -986,7 +1011,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1002,8 +1027,11 @@
       <c r="E9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1019,8 +1047,11 @@
       <c r="E10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1037,7 +1068,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1053,8 +1084,11 @@
       <c r="E12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1088,7 +1122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1104,8 +1138,11 @@
       <c r="E15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1121,8 +1158,11 @@
       <c r="E16" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1138,8 +1178,11 @@
       <c r="E17" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1156,7 +1199,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1173,7 +1216,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1190,7 +1233,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1206,8 +1249,11 @@
       <c r="E21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1224,7 +1270,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1241,7 +1287,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1257,8 +1303,11 @@
       <c r="E24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1274,8 +1323,11 @@
       <c r="E25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1291,8 +1343,11 @@
       <c r="E26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1309,7 +1364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1326,7 +1381,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1343,7 +1398,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1359,8 +1414,11 @@
       <c r="E30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1375,6 +1433,9 @@
       </c>
       <c r="E31" t="s">
         <v>97</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1384,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1396,7 +1457,7 @@
     <col min="4" max="4" width="43.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,7 +1474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1429,8 +1490,14 @@
       <c r="E2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1447,7 +1514,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1463,8 +1530,14 @@
       <c r="E4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1480,8 +1553,14 @@
       <c r="E5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1497,8 +1576,14 @@
       <c r="E6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1514,8 +1599,14 @@
       <c r="E7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1531,8 +1622,14 @@
       <c r="E8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1548,8 +1645,14 @@
       <c r="E9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1565,8 +1668,14 @@
       <c r="E10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1583,7 +1692,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1600,7 +1709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1616,8 +1725,14 @@
       <c r="E13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1633,8 +1748,14 @@
       <c r="E14" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1651,7 +1772,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1667,8 +1788,14 @@
       <c r="E16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1684,8 +1811,14 @@
       <c r="E17" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1701,8 +1834,14 @@
       <c r="E18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1718,8 +1857,14 @@
       <c r="E19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1735,8 +1880,14 @@
       <c r="E20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1752,8 +1903,14 @@
       <c r="E21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1769,8 +1926,14 @@
       <c r="E22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1786,8 +1949,14 @@
       <c r="E23" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1803,8 +1972,14 @@
       <c r="E24" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1820,8 +1995,14 @@
       <c r="E25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1837,8 +2018,14 @@
       <c r="E26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1854,8 +2041,14 @@
       <c r="E27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1872,7 +2065,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1889,7 +2082,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1905,8 +2098,14 @@
       <c r="E30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1923,7 +2122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1939,8 +2138,14 @@
       <c r="E32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1956,8 +2161,14 @@
       <c r="E33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1973,8 +2184,14 @@
       <c r="E34" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1990,8 +2207,14 @@
       <c r="E35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2006,6 +2229,56 @@
       </c>
       <c r="E36" t="s">
         <v>95</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
